--- a/medicine/Psychotrope/Cerasuolo_di_Vittoria/Cerasuolo_di_Vittoria.xlsx
+++ b/medicine/Psychotrope/Cerasuolo_di_Vittoria/Cerasuolo_di_Vittoria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cerasuolo di vittoria, est un vin rouge italien de la Sicile, dont le nom vient de la commune de Vittoria. 
@@ -513,7 +525,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il comprend tout ou partie des territoires des communes suivantes :
 Vittoria, Comiso, Acate, Chiaramonte Gulfi, Santa Croce Camerina, Ragusa dans le Libre consortium municipal de Raguse
@@ -546,7 +560,9 @@
           <t>Encépagement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nero d'Avola : de 50 % à 70 %
 Frappato : de 30% à 50%</t>
@@ -577,7 +593,9 @@
           <t>Techniques de production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les nouvelles plantes et les replantations, la densité ne peut pas être inférieure à 4000 pieds/ha.
 La conduite culturale autorisée est des jeunes gobelets et un simple espalier.
@@ -612,9 +630,11 @@
           <t>Législations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les vins de l'appellation Cerasuolo di Vittoria sont reconnus en appellation denominazione di origine controllata e garantita DOCG par arrêté ministériel du 13 septembre 2005. Ils étaient déjà été reconnus au DOC le 29 mai 1973 puis modifiés par décret ministériel le 6 novembre 1991 [2].  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les vins de l'appellation Cerasuolo di Vittoria sont reconnus en appellation denominazione di origine controllata e garantita DOCG par arrêté ministériel du 13 septembre 2005. Ils étaient déjà été reconnus au DOC le 29 mai 1973 puis modifiés par décret ministériel le 6 novembre 1991 .  
 Avant la spécification actuelle, ce vin était :
 DOC reconnu avec DPR 29.05.1973 (G.U.221 - 28.08.1973)
 modifié avec le décret du Premier ministre du 06.11.1991 (G.U.224 - 23.09.1992)
